--- a/DemoMavenSelenium/src/test/resources/TestData.xlsx
+++ b/DemoMavenSelenium/src/test/resources/TestData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11805" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11085" windowHeight="6060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BMS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -17,28 +17,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>SCENARIO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DATA_NAME</t>
   </si>
   <si>
     <t>DATA_VALUE</t>
   </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>sunit2106@gmail.com</t>
+  </si>
+  <si>
+    <t>151621*/*</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,7 +89,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -91,7 +107,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -109,7 +125,22 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -118,82 +149,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -209,7 +180,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -218,24 +189,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,13 +206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,221 +502,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
